--- a/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
+++ b/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
@@ -21,17 +21,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1541451091" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1541451091" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1541451091" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1541451091"/>
+      <pm:revision xmlns:pm="smNativeData" day="1541538652" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1541538652" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1541538652" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1541538652"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -331,6 +331,15 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>apiinfo</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t>Zabbixバージョン</t>
   </si>
   <si>
     <t>HostGroup</t>
@@ -392,7 +401,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541451091" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -407,7 +416,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541451091" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -423,7 +432,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541451091" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -438,7 +447,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541451091" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -454,7 +463,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541451091" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -470,7 +479,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541451091" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -487,7 +496,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541451091" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -509,7 +518,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -523,7 +532,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -534,7 +543,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -545,7 +554,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -556,7 +565,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -567,7 +576,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -578,7 +587,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -589,7 +598,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -600,7 +609,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -611,7 +620,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -622,7 +631,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -633,7 +642,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -644,7 +653,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -655,7 +664,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -666,7 +675,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -677,7 +686,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -688,7 +697,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541451091" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -710,7 +719,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091"/>
+          <pm:border xmlns:pm="smNativeData" id="1541538652"/>
         </ext>
       </extLst>
     </border>
@@ -729,7 +738,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -753,7 +762,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -777,7 +786,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091"/>
+          <pm:border xmlns:pm="smNativeData" id="1541538652"/>
         </ext>
       </extLst>
     </border>
@@ -796,7 +805,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -820,7 +829,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -844,7 +853,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -867,7 +876,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -889,7 +898,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -912,7 +921,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -934,7 +943,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -955,7 +964,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -977,7 +986,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -998,7 +1007,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091"/>
+          <pm:border xmlns:pm="smNativeData" id="1541538652"/>
         </ext>
       </extLst>
     </border>
@@ -1017,7 +1026,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1038,7 +1047,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1060,7 +1069,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1081,7 +1090,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091">
+          <pm:border xmlns:pm="smNativeData" id="1541538652">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1103,7 +1112,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541451091"/>
+          <pm:border xmlns:pm="smNativeData" id="1541538652"/>
         </ext>
       </extLst>
     </border>
@@ -1212,10 +1221,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1541451091" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1541538652" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1541451091" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1541538652" count="4">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="CCFFFF"/>
         <pm:color name="色 26" rgb="F2F2F2"/>
@@ -1972,7 +1981,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541451091" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541538652" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1983,16 +1992,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541451091" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541451091" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541451091" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541451091" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541451091" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541538652" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2341,7 +2350,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541451091" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541538652" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2352,16 +2361,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541451091" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541451091" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541451091" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541451091" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541451091" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541538652" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2489,7 +2498,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541451091" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -2527,7 +2536,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541451091" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -2547,7 +2556,7 @@
       <c r="M6" s="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541451091" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -2567,7 +2576,7 @@
       <c r="M7" s="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541451091" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -2587,7 +2596,7 @@
       <c r="M8" s="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541451091" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -2607,7 +2616,7 @@
       <c r="M9" s="16"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541451091" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -2627,7 +2636,7 @@
       <c r="M10" s="16"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541451091" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -2647,7 +2656,7 @@
       <c r="M11" s="16"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541451091" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -2715,7 +2724,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541451091" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541538652" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2724,16 +2733,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541451091" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541451091" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541451091" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541451091" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541451091" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541538652" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2823,7 +2832,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541451091" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541538652" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2832,16 +2841,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541451091" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541451091" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541451091" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541451091" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541451091" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541538652" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2855,7 +2864,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -2928,9 +2937,7 @@
       <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
         <v>102</v>
       </c>
@@ -2976,12 +2983,24 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8"/>
@@ -3043,7 +3062,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541451091" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541538652" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3054,16 +3073,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541451091" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541451091" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541451091" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541451091" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541451091" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541538652" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3126,16 +3145,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4132,7 +4151,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541451091" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541538652" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4143,16 +4162,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541451091" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541451091" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541451091" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541451091" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541451091" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541538652" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
+++ b/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="4" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
+    <workbookView activeTab="5" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId4"/>
@@ -21,27 +21,30 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1541538652" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1541538652" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1541538652" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1541538652"/>
+      <pm:revision xmlns:pm="smNativeData" day="1541663698" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1541663698" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1541663698" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1541663698"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
   <si>
     <t>0. はじめに</t>
   </si>
   <si>
-    <t>* Zabbix監視設定情報を採取します。</t>
+    <t>* Zabbixサーバ設定情報を採取します。</t>
   </si>
   <si>
     <t>* .\template\Zabbix が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
   </si>
   <si>
+    <t>* 「ZabbixServer監視設定チェックシート.xlsx」(本ファイル)はZabbixサーバの検査シナリオになります</t>
+  </si>
+  <si>
     <t>1. プロジェクトディレクトリの作成と移動</t>
   </si>
   <si>
@@ -51,7 +54,7 @@
     <t>2. 検査シート編集</t>
   </si>
   <si>
-    <t>「.\template\Zabbix\Zabbix監視設定チェックシート.xlsx」(本ファイル)を開きます。</t>
+    <t>「.\template\Zabbix\ZabbixServer監視設定チェックシート.xlsx」(本ファイル)を開きます。</t>
   </si>
   <si>
     <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
@@ -60,13 +63,13 @@
     <t>検査ドメイン</t>
   </si>
   <si>
-    <t>検査するシナリオID Zabbix を指定します。</t>
+    <t>検査するシナリオID ZabbixServer を指定します。</t>
   </si>
   <si>
     <t>対象サーバ</t>
   </si>
   <si>
-    <t>検査対象ホスト名。</t>
+    <t>Zabbix サーバホスト名。</t>
   </si>
   <si>
     <t>ユーザID</t>
@@ -78,7 +81,7 @@
     <t>テンプレートID</t>
   </si>
   <si>
-    <t>(オプション)  別シートの値の比較用テンプレートシートのID Zabbix を指定します。</t>
+    <t>(未使用)  別シートの値の比較用テンプレートシートのID Zabbix を指定します。</t>
   </si>
   <si>
     <t>エイリアス</t>
@@ -102,6 +105,9 @@
     <t>対象サーバ</t>
   </si>
   <si>
+    <t>IPアドレス</t>
+  </si>
+  <si>
     <t>ユーザID</t>
   </si>
   <si>
@@ -123,6 +129,9 @@
     <t>server_name</t>
   </si>
   <si>
+    <t>ip</t>
+  </si>
+  <si>
     <t>account_id</t>
   </si>
   <si>
@@ -135,28 +144,25 @@
     <t>compare_server</t>
   </si>
   <si>
-    <t>Zabbix</t>
-  </si>
-  <si>
-    <t>ostrich</t>
+    <t>ZabbixServer</t>
+  </si>
+  <si>
+    <t>centos7</t>
+  </si>
+  <si>
+    <t>192.168.0.20</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>cent7</t>
-  </si>
-  <si>
-    <t>win2012</t>
-  </si>
-  <si>
     <t>3. 設定ファイル(config.groovy)編集</t>
   </si>
   <si>
     <t>設定ファイルを編集します。</t>
   </si>
   <si>
-    <t>notepad++ .\template\Zabbix\config_zabbix.groovy</t>
+    <t>notepad++ .\template\Zabbix\config_zabbix_server.groovy</t>
   </si>
   <si>
     <t>以下の各検査対象の接続情報を編集します。</t>
@@ -165,13 +171,10 @@
     <t>// Zabbix接続情報</t>
   </si>
   <si>
-    <t>account.Zabbix.Test.server   = '192.168.0.20'</t>
-  </si>
-  <si>
-    <t>account.Zabbix.Test.user     = 'Admin'</t>
-  </si>
-  <si>
-    <t>account.Zabbix.Test.password = 'zabbix'</t>
+    <t>account.ZabbixServer.Test.user     = 'Admin'</t>
+  </si>
+  <si>
+    <t>account.ZabbixServer.Test.password = 'zabbixServer'</t>
   </si>
   <si>
     <t>4. Getconfig インベントリ収集実行</t>
@@ -180,7 +183,7 @@
     <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
   </si>
   <si>
-    <t>getconfig -c .\template\Zabbix\config_zabbix.groovy</t>
+    <t>getconfig -c .\template\Zabbix\config_zabbix_server.groovy</t>
   </si>
   <si>
     <t>5. 実行結果の参照とコミット</t>
@@ -207,21 +210,6 @@
     <t>getconfig -u db</t>
   </si>
   <si>
-    <t>IPアドレス</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>ZabbixServer</t>
-  </si>
-  <si>
-    <t>centos7</t>
-  </si>
-  <si>
-    <t>192.168.0.20</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -231,124 +219,82 @@
     <t>ドメイン</t>
   </si>
   <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t>検査成績</t>
+  </si>
+  <si>
+    <t>検査結果</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>success_rate</t>
+  </si>
+  <si>
+    <t>verify_comment</t>
+  </si>
+  <si>
+    <t>_base</t>
+  </si>
+  <si>
+    <t>apiinfo</t>
+  </si>
+  <si>
+    <t>検査対象</t>
+  </si>
+  <si>
+    <t>プラットフォーム</t>
+  </si>
+  <si>
+    <t>テストID</t>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>error_msg</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Zabbixバージョン</t>
+  </si>
+  <si>
+    <t>HostGroup</t>
+  </si>
+  <si>
     <t>ホストグループ</t>
   </si>
   <si>
-    <t>テンプレート</t>
-  </si>
-  <si>
-    <t>接続アドレス</t>
-  </si>
-  <si>
-    <t>ステータス</t>
-  </si>
-  <si>
-    <t>利用可能</t>
-  </si>
-  <si>
-    <t>Syslog監視</t>
-  </si>
-  <si>
-    <t>トリガー</t>
-  </si>
-  <si>
-    <t>検査成績</t>
-  </si>
-  <si>
-    <t>検査結果</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>success_rate</t>
-  </si>
-  <si>
-    <t>verify_comment</t>
-  </si>
-  <si>
-    <t>_base</t>
-  </si>
-  <si>
-    <t>groups</t>
-  </si>
-  <si>
-    <t>parentTemplates</t>
-  </si>
-  <si>
-    <t>interfaces</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>syslog</t>
-  </si>
-  <si>
-    <t>trigger</t>
-  </si>
-  <si>
-    <t>検査対象</t>
-  </si>
-  <si>
-    <t>プラットフォーム</t>
-  </si>
-  <si>
-    <t>テストID</t>
-  </si>
-  <si>
-    <t>エラーメッセージ</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>error_msg</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>apiinfo</t>
-  </si>
-  <si>
-    <t>バージョン</t>
-  </si>
-  <si>
-    <t>Zabbixバージョン</t>
-  </si>
-  <si>
-    <t>HostGroup</t>
-  </si>
-  <si>
-    <t>ホスト</t>
-  </si>
-  <si>
-    <t>ホストグループ。詳細は別シートに登録</t>
+    <t>ホストグループ数。詳細は別シートに登録</t>
   </si>
   <si>
     <t>User</t>
@@ -357,7 +303,16 @@
     <t>ユーザ</t>
   </si>
   <si>
-    <t>ユーザリスト</t>
+    <t>ユーザリスト数。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>UserGroup</t>
+  </si>
+  <si>
+    <t>ユーザグループ</t>
+  </si>
+  <si>
+    <t>ユーザグループリスト数。詳細は別シートに登録</t>
   </si>
   <si>
     <t>Action</t>
@@ -366,16 +321,7 @@
     <t>アクション</t>
   </si>
   <si>
-    <t>アクションリスト</t>
-  </si>
-  <si>
-    <t>Monitored</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>NotFoundError</t>
+    <t>アクションリスト数。詳細は別シートに登録</t>
   </si>
 </sst>
 </file>
@@ -401,7 +347,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -416,7 +362,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -432,7 +378,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -447,7 +393,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -463,7 +409,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -479,7 +425,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -496,7 +442,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541538652" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -505,7 +451,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,7 +464,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -532,7 +478,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -543,7 +489,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -554,7 +500,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -565,7 +511,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -576,7 +522,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -587,7 +533,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -598,7 +544,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -609,7 +555,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -620,7 +566,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -631,7 +577,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -642,7 +588,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -653,7 +599,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -664,7 +610,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -675,7 +621,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -686,7 +632,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -697,13 +643,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541538652" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -719,7 +676,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652"/>
+          <pm:border xmlns:pm="smNativeData" id="1541663698"/>
         </ext>
       </extLst>
     </border>
@@ -738,7 +695,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -762,7 +719,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -786,7 +743,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652"/>
+          <pm:border xmlns:pm="smNativeData" id="1541663698"/>
         </ext>
       </extLst>
     </border>
@@ -805,7 +762,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -829,7 +786,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -853,7 +810,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -876,7 +833,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -898,7 +855,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -921,7 +878,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -943,7 +900,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -964,7 +921,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -986,7 +943,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1007,7 +964,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652"/>
+          <pm:border xmlns:pm="smNativeData" id="1541663698"/>
         </ext>
       </extLst>
     </border>
@@ -1026,7 +983,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1047,7 +1004,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1069,7 +1026,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1090,7 +1047,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652">
+          <pm:border xmlns:pm="smNativeData" id="1541663698">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1112,7 +1069,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541538652"/>
+          <pm:border xmlns:pm="smNativeData" id="1541663698"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1541663698"/>
         </ext>
       </extLst>
     </border>
@@ -1125,7 +1101,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,9 +1128,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1221,10 +1194,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1541538652" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1541663698" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1541538652" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1541663698" count="4">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="CCFFFF"/>
         <pm:color name="色 26" rgb="F2F2F2"/>
@@ -1468,19 +1441,21 @@
   <dimension ref="A2:N72"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="3.372727" customWidth="1"/>
-    <col min="3" max="3" width="12.245455" customWidth="1"/>
-    <col min="4" max="4" width="13.245455" customWidth="1"/>
-    <col min="5" max="5" width="11.500000" customWidth="1"/>
-    <col min="6" max="6" width="13.745455" customWidth="1"/>
-    <col min="7" max="7" width="13.127273" customWidth="1"/>
-    <col min="8" max="8" width="16.500000" customWidth="1"/>
-    <col min="9" max="1017" width="8.745455" customWidth="1"/>
+    <col min="1" max="1" width="3.372727" customWidth="1"/>
+    <col min="2" max="2" width="2.636364" customWidth="1"/>
+    <col min="3" max="3" width="10.772727" customWidth="1"/>
+    <col min="4" max="4" width="10.181818" customWidth="1"/>
+    <col min="5" max="5" width="10.118182" customWidth="1"/>
+    <col min="6" max="6" width="8.718182" customWidth="1"/>
+    <col min="7" max="7" width="11.709091" customWidth="1"/>
+    <col min="8" max="8" width="10.390909" customWidth="1"/>
+    <col min="9" max="9" width="12.645455" customWidth="1"/>
+    <col min="10" max="1017" width="8.745455" customWidth="1"/>
     <col min="1018" max="1019" width="11.627273" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1499,23 +1474,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1524,174 +1499,163 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
-      <c r="C16" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
         <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
         <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
         <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
         <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="2:8">
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="2" t="s">
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="3" t="n">
+      <c r="G28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="3" t="n">
+      <c r="C29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1699,10 +1663,11 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1710,10 +1675,11 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1721,10 +1687,11 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1732,10 +1699,11 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1743,10 +1711,11 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1754,10 +1723,11 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1765,223 +1735,220 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14">
-      <c r="C43" s="17" t="s">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="19"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="3:14">
-      <c r="C47" s="20" t="s">
+    <row r="44" spans="3:14">
+      <c r="C44" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="22"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="18"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="48" spans="3:14">
-      <c r="C48" s="23"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="25"/>
+      <c r="C48" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="21"/>
     </row>
     <row r="49" spans="3:14">
-      <c r="C49" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="25"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="24"/>
     </row>
     <row r="50" spans="3:14">
-      <c r="C50" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="25"/>
+      <c r="C50" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="24"/>
     </row>
     <row r="51" spans="3:14">
-      <c r="C51" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="28"/>
+      <c r="C51" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="27"/>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="3:14">
-      <c r="C57" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="19"/>
+      <c r="C57" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="18"/>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="3:14">
-      <c r="C63" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="19"/>
+      <c r="C63" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="18"/>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="3:14">
-      <c r="C68" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="19"/>
+      <c r="C68" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="18"/>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="3:14">
-      <c r="C72" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="19"/>
+      <c r="C72" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:I26"/>
   </mergeCells>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541538652" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541663698" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1992,16 +1959,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541538652" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663698" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2015,7 +1982,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="120" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -2034,7 +2001,7 @@
     <row r="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2046,51 +2013,51 @@
     <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2098,20 +2065,18 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
@@ -2350,7 +2315,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541538652" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541663698" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2361,16 +2326,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541538652" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663698" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2391,12 +2356,10 @@
   <cols>
     <col min="1" max="1" width="4.245455" customWidth="1" style="4"/>
     <col min="2" max="4" width="11.500000" customWidth="1" style="4"/>
-    <col min="5" max="6" width="21.500000" customWidth="1" style="4"/>
-    <col min="7" max="10" width="11.500000" customWidth="1" style="4"/>
-    <col min="11" max="11" width="12.245455" customWidth="1" style="4"/>
-    <col min="12" max="12" width="24.745455" customWidth="1" style="4"/>
-    <col min="13" max="13" width="11.500000" customWidth="1" style="4"/>
-    <col min="14" max="1024" width="8.745455" customWidth="1" style="4"/>
+    <col min="5" max="5" width="12.245455" customWidth="1" style="4"/>
+    <col min="6" max="6" width="24.745455" customWidth="1" style="4"/>
+    <col min="7" max="7" width="13.590909" customWidth="1" style="4"/>
+    <col min="8" max="1018" width="8.745455" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2407,12 +2370,6 @@
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2"/>
@@ -2422,241 +2379,157 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:13" hidden="1">
+      <c r="A4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="C4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1">
-      <c r="A4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>80</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="5" spans="1:13" hidden="1">
-      <c r="A5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>83</v>
-      </c>
+      <c r="A5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="6" spans="1:13" hidden="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="7" spans="1:13" hidden="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="8" spans="1:13" hidden="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="9" spans="1:13" hidden="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="10" spans="1:13" hidden="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="11" spans="1:13" hidden="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541538652" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -2668,12 +2541,6 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8"/>
@@ -2683,12 +2550,6 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8"/>
@@ -2698,12 +2559,6 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8"/>
@@ -2713,18 +2568,12 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541538652" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541663698" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2733,16 +2582,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541538652" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663698" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2771,33 +2620,33 @@
     <row r="1" spans="1:5">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2832,7 +2681,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541538652" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541663698" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2841,16 +2690,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541538652" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663698" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2861,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView view="normal" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -2906,163 +2755,127 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541538652" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541663698" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3073,16 +2886,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541538652" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663698" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3095,1063 +2908,737 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="5" width="15.372727" customWidth="1"/>
-    <col min="6" max="1007" width="8.745455" customWidth="1"/>
-    <col min="1008" max="1025" width="11.627273" customWidth="1"/>
+    <col min="2" max="2" width="15.372727" customWidth="1"/>
+    <col min="3" max="1004" width="8.745455" customWidth="1"/>
+    <col min="1005" max="1022" width="11.627273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>60</v>
+      <c r="A1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>87</v>
+      <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <f>A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <f>A8+1</f>
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <f>A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <f>A10+1</f>
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <f>A11+1</f>
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <f>A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <f>A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <f>A14+1</f>
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <f>A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <f>A16+1</f>
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <f>A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <f>A18+1</f>
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <f>A19+1</f>
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <f>A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <f>A21+1</f>
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <f>A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <f>A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <f>A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <f>A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <f>A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <f>A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <f>A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <f>A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <f>A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <f>A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <f>A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <f>A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <f>A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <f>A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="B38" s="10"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <f>A38+1</f>
         <v>37</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <f>A39+1</f>
         <v>38</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <f>A40+1</f>
         <v>39</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <f>A41+1</f>
         <v>40</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="B42" s="10"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <f>A42+1</f>
         <v>41</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <f>A43+1</f>
         <v>42</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <f>A44+1</f>
         <v>43</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
+      <c r="B45" s="10"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <f>A45+1</f>
         <v>44</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <f>A46+1</f>
         <v>45</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <f>A47+1</f>
         <v>46</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="B48" s="10"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <f>A48+1</f>
         <v>47</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="B49" s="10"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <f>A49+1</f>
         <v>48</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="11">
+      <c r="A51" s="10">
         <f>A50+1</f>
         <v>49</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="B51" s="10"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="11">
+      <c r="A52" s="10">
         <f>A51+1</f>
         <v>50</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="11">
+      <c r="A53" s="10">
         <f>A52+1</f>
         <v>51</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
+      <c r="B53" s="10"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="11">
+      <c r="A54" s="10">
         <f>A53+1</f>
         <v>52</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
+      <c r="B54" s="10"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="11">
+      <c r="A55" s="10">
         <f>A54+1</f>
         <v>53</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+      <c r="B55" s="10"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="11">
+      <c r="A56" s="10">
         <f>A55+1</f>
         <v>54</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="B56" s="10"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="11">
+      <c r="A57" s="10">
         <f>A56+1</f>
         <v>55</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="B57" s="10"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="11">
+      <c r="A58" s="10">
         <f>A57+1</f>
         <v>56</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
+      <c r="B58" s="10"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="11">
+      <c r="A59" s="10">
         <f>A58+1</f>
         <v>57</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="11">
+      <c r="A60" s="10">
         <f>A59+1</f>
         <v>58</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
+      <c r="B60" s="10"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="11">
+      <c r="A61" s="10">
         <f>A60+1</f>
         <v>59</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
+      <c r="B61" s="10"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="11">
+      <c r="A62" s="10">
         <f>A61+1</f>
         <v>60</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
+      <c r="B62" s="10"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="11">
+      <c r="A63" s="10">
         <f>A62+1</f>
         <v>61</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
+      <c r="B63" s="10"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="11">
+      <c r="A64" s="10">
         <f>A63+1</f>
         <v>62</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
+      <c r="B64" s="10"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="11">
+      <c r="A65" s="10">
         <f>A64+1</f>
         <v>63</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
+      <c r="B65" s="10"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="11">
+      <c r="A66" s="10">
         <f>A65+1</f>
         <v>64</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
+      <c r="B66" s="10"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="11">
+      <c r="A67" s="10">
         <f>A66+1</f>
         <v>65</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
+      <c r="B67" s="10"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="11">
+      <c r="A68" s="10">
         <f>A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
+      <c r="B68" s="10"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="11">
+      <c r="A69" s="10">
         <f>A68+1</f>
         <v>67</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
+      <c r="B69" s="10"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="11">
+      <c r="A70" s="10">
         <f>A69+1</f>
         <v>68</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
+      <c r="B70" s="10"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="11">
+      <c r="A71" s="10">
         <f>A70+1</f>
         <v>69</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
+      <c r="B71" s="10"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="11">
+      <c r="A72" s="10">
         <f>A71+1</f>
         <v>70</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
+      <c r="B72" s="10"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="11">
+      <c r="A73" s="10">
         <f>A72+1</f>
         <v>71</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
+      <c r="B73" s="10"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="11">
+      <c r="A74" s="10">
         <f>A73+1</f>
         <v>72</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
+      <c r="B74" s="10"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="11">
+      <c r="A75" s="10">
         <f>A74+1</f>
         <v>73</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
+      <c r="B75" s="10"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="11">
+      <c r="A76" s="10">
         <f>A75+1</f>
         <v>74</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
+      <c r="B76" s="10"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="11">
+      <c r="A77" s="10">
         <f>A76+1</f>
         <v>75</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
+      <c r="B77" s="10"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="11">
+      <c r="A78" s="10">
         <f>A77+1</f>
         <v>76</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
+      <c r="B78" s="10"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="11">
+      <c r="A79" s="10">
         <f>A78+1</f>
         <v>77</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
+      <c r="B79" s="10"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="11">
+      <c r="A80" s="10">
         <f>A79+1</f>
         <v>78</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
+      <c r="B80" s="10"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="11">
+      <c r="A81" s="10">
         <f>A80+1</f>
         <v>79</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
+      <c r="B81" s="10"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="11">
+      <c r="A82" s="10">
         <f>A81+1</f>
         <v>80</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
+      <c r="B82" s="10"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="11">
+      <c r="A83" s="10">
         <f>A82+1</f>
         <v>81</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
+      <c r="B83" s="10"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="11">
+      <c r="A84" s="10">
         <f>A83+1</f>
         <v>82</v>
       </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
+      <c r="B84" s="10"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="11">
+      <c r="A85" s="10">
         <f>A84+1</f>
         <v>83</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
+      <c r="B85" s="10"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="11">
+      <c r="A86" s="10">
         <f>A85+1</f>
         <v>84</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
+      <c r="B86" s="10"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="11">
+      <c r="A87" s="10">
         <f>A86+1</f>
         <v>85</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
+      <c r="B87" s="10"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="11">
+      <c r="A88" s="10">
         <f>A87+1</f>
         <v>86</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
+      <c r="B88" s="10"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="11">
+      <c r="A89" s="10">
         <f>A88+1</f>
         <v>87</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
+      <c r="B89" s="10"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="11">
+      <c r="A90" s="10">
         <f>A89+1</f>
         <v>88</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
+      <c r="B90" s="10"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="11">
+      <c r="A91" s="10">
         <f>A90+1</f>
         <v>89</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
+      <c r="B91" s="10"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="11">
+      <c r="A92" s="10">
         <f>A91+1</f>
         <v>90</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
+      <c r="B92" s="10"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="11">
+      <c r="A93" s="10">
         <f>A92+1</f>
         <v>91</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
+      <c r="B93" s="10"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="11">
+      <c r="A94" s="10">
         <f>A93+1</f>
         <v>92</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
+      <c r="B94" s="10"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="11">
+      <c r="A95" s="10">
         <f>A94+1</f>
         <v>93</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
+      <c r="B95" s="10"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="11">
+      <c r="A96" s="10">
         <f>A95+1</f>
         <v>94</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
+      <c r="B96" s="10"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="11">
+      <c r="A97" s="10">
         <f>A96+1</f>
         <v>95</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
+      <c r="B97" s="10"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="11">
+      <c r="A98" s="10">
         <f>A97+1</f>
         <v>96</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
+      <c r="B98" s="10"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="11">
+      <c r="A99" s="10">
         <f>A98+1</f>
         <v>97</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
+      <c r="B99" s="10"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="11">
+      <c r="A100" s="10">
         <f>A99+1</f>
         <v>98</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
+      <c r="B100" s="10"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="11">
+      <c r="A101" s="10">
         <f>A100+1</f>
         <v>99</v>
       </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
+      <c r="B101" s="10"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="11">
+      <c r="A102" s="10">
         <f>A101+1</f>
         <v>100</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
+      <c r="B102" s="10"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541538652" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541663698" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4162,16 +3649,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541538652" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541538652" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541538652" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663698" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
+++ b/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="5" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
+    <workbookView activeTab="4" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId4"/>
@@ -21,10 +21,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1541663698" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1541663698" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1541663698" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1541663698"/>
+      <pm:revision xmlns:pm="smNativeData" day="1541712909" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1541712909" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1541712909" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1541712909"/>
     </ext>
   </extLst>
 </workbook>
@@ -147,7 +147,7 @@
     <t>ZabbixServer</t>
   </si>
   <si>
-    <t>centos7</t>
+    <t>cent7</t>
   </si>
   <si>
     <t>192.168.0.20</t>
@@ -294,7 +294,7 @@
     <t>ホストグループ</t>
   </si>
   <si>
-    <t>ホストグループ数。詳細は別シートに登録</t>
+    <t>ホストグループリスト。詳細は別シートに登録</t>
   </si>
   <si>
     <t>User</t>
@@ -303,7 +303,7 @@
     <t>ユーザ</t>
   </si>
   <si>
-    <t>ユーザリスト数。詳細は別シートに登録</t>
+    <t>ユーザリスト。詳細は別シートに登録</t>
   </si>
   <si>
     <t>UserGroup</t>
@@ -312,7 +312,7 @@
     <t>ユーザグループ</t>
   </si>
   <si>
-    <t>ユーザグループリスト数。詳細は別シートに登録</t>
+    <t>ユーザグループリスト。詳細は別シートに登録</t>
   </si>
   <si>
     <t>Action</t>
@@ -321,7 +321,7 @@
     <t>アクション</t>
   </si>
   <si>
-    <t>アクションリスト数。詳細は別シートに登録</t>
+    <t>アクションリスト。詳細は別シートに登録</t>
   </si>
 </sst>
 </file>
@@ -347,7 +347,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541712909" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -362,7 +362,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541712909" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -378,7 +378,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541712909" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -393,7 +393,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541712909" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -409,7 +409,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541712909" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -425,7 +425,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541712909" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -442,7 +442,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1541663698" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1541712909" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -451,7 +451,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,7 +464,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -478,7 +478,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -489,7 +489,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -500,7 +500,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -511,7 +511,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -522,7 +522,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -533,7 +533,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -544,7 +544,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -555,7 +555,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -566,7 +566,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -577,7 +577,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -588,7 +588,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -599,7 +599,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -610,7 +610,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -621,7 +621,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -632,35 +632,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1541663698" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1541712909" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -676,7 +654,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698"/>
+          <pm:border xmlns:pm="smNativeData" id="1541712909"/>
         </ext>
       </extLst>
     </border>
@@ -695,7 +673,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -719,7 +697,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -743,7 +721,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698"/>
+          <pm:border xmlns:pm="smNativeData" id="1541712909"/>
         </ext>
       </extLst>
     </border>
@@ -762,7 +740,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -786,7 +764,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -810,7 +788,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -833,7 +811,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -855,7 +833,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -878,7 +856,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -900,7 +878,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -921,7 +899,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -943,7 +921,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -964,7 +942,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698"/>
+          <pm:border xmlns:pm="smNativeData" id="1541712909"/>
         </ext>
       </extLst>
     </border>
@@ -983,7 +961,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1004,7 +982,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1026,7 +1004,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1047,48 +1025,10 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698">
+          <pm:border xmlns:pm="smNativeData" id="1541712909">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1541663698"/>
         </ext>
       </extLst>
     </border>
@@ -1194,10 +1134,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1541663698" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1541712909" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1541663698" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1541712909" count="4">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="CCFFFF"/>
         <pm:color name="色 26" rgb="F2F2F2"/>
@@ -1441,7 +1381,7 @@
   <dimension ref="A2:N72"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1948,7 +1888,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541663698" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541712909" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1959,16 +1899,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541712909" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541712909" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541712909" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541712909" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663698" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2315,7 +2255,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541663698" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541712909" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2326,16 +2266,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541712909" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541712909" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541712909" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541712909" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663698" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2346,7 +2286,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -2362,7 +2302,7 @@
     <col min="8" max="1018" width="8.745455" customWidth="1" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:7">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -2371,7 +2311,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:7">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -2380,7 +2320,7 @@
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>59</v>
       </c>
@@ -2403,7 +2343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="13" t="s">
         <v>66</v>
       </c>
@@ -2425,11 +2365,11 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541712909" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="13" t="s">
         <v>66</v>
       </c>
@@ -2445,11 +2385,11 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541712909" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2459,11 +2399,11 @@
       <c r="G6" s="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541712909" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -2473,11 +2413,11 @@
       <c r="G7" s="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541712909" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -2487,11 +2427,11 @@
       <c r="G8" s="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541712909" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2501,11 +2441,11 @@
       <c r="G9" s="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541712909" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -2515,11 +2455,11 @@
       <c r="G10" s="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541712909" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -2529,11 +2469,11 @@
       <c r="G11" s="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1541663698" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1541712909" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:7">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2542,7 +2482,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:7">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2551,7 +2491,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:7">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2560,7 +2500,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:7">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2573,7 +2513,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541663698" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541712909" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2582,16 +2522,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541712909" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541712909" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541712909" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541712909" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663698" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2681,7 +2621,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541663698" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541712909" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2690,16 +2630,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541712909" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541712909" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541712909" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541712909" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663698" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2712,7 +2652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="normal" zoomScale="90" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2875,7 +2815,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541663698" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541712909" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2886,16 +2826,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541712909" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541712909" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541712909" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541712909" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663698" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2906,9 +2846,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="90" workbookViewId="0">
+    <sheetView view="normal" zoomScale="90" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2919,7 +2859,7 @@
     <col min="1005" max="1022" width="11.627273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
         <v>77</v>
       </c>
@@ -2927,7 +2867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
@@ -2935,699 +2875,699 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:2">
       <c r="A3" s="10" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:2">
       <c r="A4" s="10">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:2">
       <c r="A5" s="10">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:2">
       <c r="A6" s="10">
         <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:2">
       <c r="A7" s="10">
         <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:2">
       <c r="A8" s="10">
         <f>A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:2">
       <c r="A9" s="10">
         <f>A8+1</f>
         <v>7</v>
       </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:2">
       <c r="A10" s="10">
         <f>A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:2">
       <c r="A11" s="10">
         <f>A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:2">
       <c r="A12" s="10">
         <f>A11+1</f>
         <v>10</v>
       </c>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:2">
       <c r="A13" s="10">
         <f>A12+1</f>
         <v>11</v>
       </c>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:2">
       <c r="A14" s="10">
         <f>A13+1</f>
         <v>12</v>
       </c>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:2">
       <c r="A15" s="10">
         <f>A14+1</f>
         <v>13</v>
       </c>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:2">
       <c r="A16" s="10">
         <f>A15+1</f>
         <v>14</v>
       </c>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:2">
       <c r="A17" s="10">
         <f>A16+1</f>
         <v>15</v>
       </c>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:2">
       <c r="A18" s="10">
         <f>A17+1</f>
         <v>16</v>
       </c>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:2">
       <c r="A19" s="10">
         <f>A18+1</f>
         <v>17</v>
       </c>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:2">
       <c r="A20" s="10">
         <f>A19+1</f>
         <v>18</v>
       </c>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:2">
       <c r="A21" s="10">
         <f>A20+1</f>
         <v>19</v>
       </c>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:2">
       <c r="A22" s="10">
         <f>A21+1</f>
         <v>20</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:2">
       <c r="A23" s="10">
         <f>A22+1</f>
         <v>21</v>
       </c>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:2">
       <c r="A24" s="10">
         <f>A23+1</f>
         <v>22</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:2">
       <c r="A25" s="10">
         <f>A24+1</f>
         <v>23</v>
       </c>
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:2">
       <c r="A26" s="10">
         <f>A25+1</f>
         <v>24</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:2">
       <c r="A27" s="10">
         <f>A26+1</f>
         <v>25</v>
       </c>
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:2">
       <c r="A28" s="10">
         <f>A27+1</f>
         <v>26</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:2">
       <c r="A29" s="10">
         <f>A28+1</f>
         <v>27</v>
       </c>
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:2">
       <c r="A30" s="10">
         <f>A29+1</f>
         <v>28</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:2">
       <c r="A31" s="10">
         <f>A30+1</f>
         <v>29</v>
       </c>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:2">
       <c r="A32" s="10">
         <f>A31+1</f>
         <v>30</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:2">
       <c r="A33" s="10">
         <f>A32+1</f>
         <v>31</v>
       </c>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:2">
       <c r="A34" s="10">
         <f>A33+1</f>
         <v>32</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:2">
       <c r="A35" s="10">
         <f>A34+1</f>
         <v>33</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:2">
       <c r="A36" s="10">
         <f>A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:2">
       <c r="A37" s="10">
         <f>A36+1</f>
         <v>35</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:2">
       <c r="A38" s="10">
         <f>A37+1</f>
         <v>36</v>
       </c>
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:2">
       <c r="A39" s="10">
         <f>A38+1</f>
         <v>37</v>
       </c>
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:2">
       <c r="A40" s="10">
         <f>A39+1</f>
         <v>38</v>
       </c>
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:2">
       <c r="A41" s="10">
         <f>A40+1</f>
         <v>39</v>
       </c>
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:2">
       <c r="A42" s="10">
         <f>A41+1</f>
         <v>40</v>
       </c>
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:2">
       <c r="A43" s="10">
         <f>A42+1</f>
         <v>41</v>
       </c>
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:2">
       <c r="A44" s="10">
         <f>A43+1</f>
         <v>42</v>
       </c>
       <c r="B44" s="10"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:2">
       <c r="A45" s="10">
         <f>A44+1</f>
         <v>43</v>
       </c>
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:2">
       <c r="A46" s="10">
         <f>A45+1</f>
         <v>44</v>
       </c>
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:2">
       <c r="A47" s="10">
         <f>A46+1</f>
         <v>45</v>
       </c>
       <c r="B47" s="10"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:2">
       <c r="A48" s="10">
         <f>A47+1</f>
         <v>46</v>
       </c>
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:2">
       <c r="A49" s="10">
         <f>A48+1</f>
         <v>47</v>
       </c>
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:2">
       <c r="A50" s="10">
         <f>A49+1</f>
         <v>48</v>
       </c>
       <c r="B50" s="10"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:2">
       <c r="A51" s="10">
         <f>A50+1</f>
         <v>49</v>
       </c>
       <c r="B51" s="10"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:2">
       <c r="A52" s="10">
         <f>A51+1</f>
         <v>50</v>
       </c>
       <c r="B52" s="10"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:2">
       <c r="A53" s="10">
         <f>A52+1</f>
         <v>51</v>
       </c>
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:2">
       <c r="A54" s="10">
         <f>A53+1</f>
         <v>52</v>
       </c>
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:2">
       <c r="A55" s="10">
         <f>A54+1</f>
         <v>53</v>
       </c>
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:2">
       <c r="A56" s="10">
         <f>A55+1</f>
         <v>54</v>
       </c>
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:2">
       <c r="A57" s="10">
         <f>A56+1</f>
         <v>55</v>
       </c>
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:2">
       <c r="A58" s="10">
         <f>A57+1</f>
         <v>56</v>
       </c>
       <c r="B58" s="10"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:2">
       <c r="A59" s="10">
         <f>A58+1</f>
         <v>57</v>
       </c>
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:2">
       <c r="A60" s="10">
         <f>A59+1</f>
         <v>58</v>
       </c>
       <c r="B60" s="10"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:2">
       <c r="A61" s="10">
         <f>A60+1</f>
         <v>59</v>
       </c>
       <c r="B61" s="10"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:2">
       <c r="A62" s="10">
         <f>A61+1</f>
         <v>60</v>
       </c>
       <c r="B62" s="10"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:2">
       <c r="A63" s="10">
         <f>A62+1</f>
         <v>61</v>
       </c>
       <c r="B63" s="10"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:2">
       <c r="A64" s="10">
         <f>A63+1</f>
         <v>62</v>
       </c>
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:2">
       <c r="A65" s="10">
         <f>A64+1</f>
         <v>63</v>
       </c>
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:2">
       <c r="A66" s="10">
         <f>A65+1</f>
         <v>64</v>
       </c>
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:2">
       <c r="A67" s="10">
         <f>A66+1</f>
         <v>65</v>
       </c>
       <c r="B67" s="10"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:2">
       <c r="A68" s="10">
         <f>A67+1</f>
         <v>66</v>
       </c>
       <c r="B68" s="10"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:2">
       <c r="A69" s="10">
         <f>A68+1</f>
         <v>67</v>
       </c>
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:2">
       <c r="A70" s="10">
         <f>A69+1</f>
         <v>68</v>
       </c>
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:2">
       <c r="A71" s="10">
         <f>A70+1</f>
         <v>69</v>
       </c>
       <c r="B71" s="10"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:2">
       <c r="A72" s="10">
         <f>A71+1</f>
         <v>70</v>
       </c>
       <c r="B72" s="10"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:2">
       <c r="A73" s="10">
         <f>A72+1</f>
         <v>71</v>
       </c>
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:2">
       <c r="A74" s="10">
         <f>A73+1</f>
         <v>72</v>
       </c>
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:2">
       <c r="A75" s="10">
         <f>A74+1</f>
         <v>73</v>
       </c>
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:2">
       <c r="A76" s="10">
         <f>A75+1</f>
         <v>74</v>
       </c>
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:2">
       <c r="A77" s="10">
         <f>A76+1</f>
         <v>75</v>
       </c>
       <c r="B77" s="10"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:2">
       <c r="A78" s="10">
         <f>A77+1</f>
         <v>76</v>
       </c>
       <c r="B78" s="10"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:2">
       <c r="A79" s="10">
         <f>A78+1</f>
         <v>77</v>
       </c>
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:2">
       <c r="A80" s="10">
         <f>A79+1</f>
         <v>78</v>
       </c>
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:2">
       <c r="A81" s="10">
         <f>A80+1</f>
         <v>79</v>
       </c>
       <c r="B81" s="10"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:2">
       <c r="A82" s="10">
         <f>A81+1</f>
         <v>80</v>
       </c>
       <c r="B82" s="10"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:2">
       <c r="A83" s="10">
         <f>A82+1</f>
         <v>81</v>
       </c>
       <c r="B83" s="10"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:2">
       <c r="A84" s="10">
         <f>A83+1</f>
         <v>82</v>
       </c>
       <c r="B84" s="10"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:2">
       <c r="A85" s="10">
         <f>A84+1</f>
         <v>83</v>
       </c>
       <c r="B85" s="10"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:2">
       <c r="A86" s="10">
         <f>A85+1</f>
         <v>84</v>
       </c>
       <c r="B86" s="10"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:2">
       <c r="A87" s="10">
         <f>A86+1</f>
         <v>85</v>
       </c>
       <c r="B87" s="10"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:2">
       <c r="A88" s="10">
         <f>A87+1</f>
         <v>86</v>
       </c>
       <c r="B88" s="10"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:2">
       <c r="A89" s="10">
         <f>A88+1</f>
         <v>87</v>
       </c>
       <c r="B89" s="10"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:2">
       <c r="A90" s="10">
         <f>A89+1</f>
         <v>88</v>
       </c>
       <c r="B90" s="10"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:2">
       <c r="A91" s="10">
         <f>A90+1</f>
         <v>89</v>
       </c>
       <c r="B91" s="10"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:2">
       <c r="A92" s="10">
         <f>A91+1</f>
         <v>90</v>
       </c>
       <c r="B92" s="10"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:2">
       <c r="A93" s="10">
         <f>A92+1</f>
         <v>91</v>
       </c>
       <c r="B93" s="10"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:2">
       <c r="A94" s="10">
         <f>A93+1</f>
         <v>92</v>
       </c>
       <c r="B94" s="10"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:2">
       <c r="A95" s="10">
         <f>A94+1</f>
         <v>93</v>
       </c>
       <c r="B95" s="10"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:2">
       <c r="A96" s="10">
         <f>A95+1</f>
         <v>94</v>
       </c>
       <c r="B96" s="10"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:2">
       <c r="A97" s="10">
         <f>A96+1</f>
         <v>95</v>
       </c>
       <c r="B97" s="10"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:2">
       <c r="A98" s="10">
         <f>A97+1</f>
         <v>96</v>
       </c>
       <c r="B98" s="10"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:2">
       <c r="A99" s="10">
         <f>A98+1</f>
         <v>97</v>
       </c>
       <c r="B99" s="10"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:2">
       <c r="A100" s="10">
         <f>A99+1</f>
         <v>98</v>
       </c>
       <c r="B100" s="10"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:2">
       <c r="A101" s="10">
         <f>A100+1</f>
         <v>99</v>
       </c>
       <c r="B101" s="10"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:2">
       <c r="A102" s="10">
         <f>A101+1</f>
         <v>100</v>
@@ -3638,7 +3578,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1541663698" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1541712909" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3649,16 +3589,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1541663698" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1541663698" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1541712909" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1541712909" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541712909" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1541712909" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663698" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
+++ b/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -326,6 +326,17 @@
   </si>
   <si>
     <t>* 「ZabbixServer監視設定チェックシート.xlsx」(本ファイル)がZabbixサーバの検査シナリオになります</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択プラットフォーム</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -681,13 +692,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -730,6 +735,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,9 +1062,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0"/>
+    <sheetView topLeftCell="A70" zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1070,1387 +1081,1400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="19">
+      <c r="A29" s="15"/>
+      <c r="B29" s="17">
         <v>1</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="19">
+      <c r="A30" s="15"/>
+      <c r="B30" s="17">
         <v>2</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="19">
+      <c r="A31" s="15"/>
+      <c r="B31" s="17">
         <v>3</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="19">
+      <c r="A32" s="15"/>
+      <c r="B32" s="17">
         <v>4</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="19">
+      <c r="A33" s="15"/>
+      <c r="B33" s="17">
         <v>5</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="19">
+      <c r="A34" s="15"/>
+      <c r="B34" s="17">
         <v>6</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="19">
+      <c r="A35" s="15"/>
+      <c r="B35" s="17">
         <v>7</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="19">
+      <c r="A36" s="15"/>
+      <c r="B36" s="17">
         <v>8</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="19">
+      <c r="A37" s="15"/>
+      <c r="B37" s="17">
         <v>9</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="19">
+      <c r="A38" s="15"/>
+      <c r="B38" s="17">
         <v>10</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="20" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="16"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="23" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="16"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="15"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="16"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="15"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="26" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="16"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="15"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="29" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="16"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="15"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16" t="s">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="20" t="s">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="16"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="15"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16" t="s">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="20" t="s">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="16"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="15"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16" t="s">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16" t="s">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="20" t="s">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="16"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="15"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16" t="s">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="20" t="s">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="16"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="15"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2478,9 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2497,15 +2519,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -2817,6 +2839,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$76:$C$77</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>

--- a/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
+++ b/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="テンプレート(ZabbixServer)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$77</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -58,9 +58,6 @@
     <t>「.\template\Zabbix\ZabbixServer監視設定チェックシート.xlsx」(本ファイル)を開きます。</t>
   </si>
   <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
-  </si>
-  <si>
     <t>検査ドメイン</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
   </si>
   <si>
     <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
-  </si>
-  <si>
-    <t>getconfig -c .\template\Zabbix\config_zabbix_server.groovy</t>
   </si>
   <si>
     <t>5. 実行結果の参照とコミット</t>
@@ -337,6 +331,56 @@
     <rPh sb="0" eb="2">
       <t>センタク</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* 以下の2種類の検査シナリオがあります。用途に合わせて選択してください。</t>
+  </si>
+  <si>
+    <t>* Zabbix 監視対象サーバ用 : Zabbix監視設定チェックシート.xlsx</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* Zabbix サーバ本体用 : ZabbixServer監視設定チェックシート.xlsx (本書の手順)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)が必須入力項目となります。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Zabbix　サーバIPアドレス。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Redmine プラグインデータへのロード</t>
+  </si>
+  <si>
+    <t>Redmine チケット登録</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Zabbix\config_zabbix_server.groovy</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Zabbix\config_zabbix_server.groovy -rp {Redmineプロジェクト名}</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -438,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -637,6 +681,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +794,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,9 +1127,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="105" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1172,63 +1237,67 @@
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -1245,9 +1314,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1263,7 +1330,9 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1280,9 +1349,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
-        <v>5</v>
-      </c>
+      <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1300,7 +1367,9 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1317,9 +1386,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1335,10 +1402,10 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="A15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1372,13 +1439,11 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="B17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -1393,13 +1458,11 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -1415,12 +1478,8 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -1435,12 +1494,14 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="C20" s="15" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -1456,12 +1517,14 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -1477,12 +1540,14 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="C22" s="15" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -1498,9 +1563,15 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="B23" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -1515,11 +1586,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
-      <c r="B24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1535,8 +1608,12 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1551,16 +1628,18 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -1570,28 +1649,14 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -1601,30 +1666,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="B28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
@@ -1634,26 +1685,14 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
-      <c r="B29" s="17">
-        <v>1</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
@@ -1663,16 +1702,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
-      <c r="B30" s="17">
-        <v>2</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -1682,16 +1721,28 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
-      <c r="B31" s="17">
-        <v>3</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
@@ -1701,16 +1752,30 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
-      <c r="B32" s="17">
-        <v>4</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="B32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
@@ -1721,13 +1786,23 @@
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="17">
-        <v>5</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="15"/>
@@ -1740,7 +1815,7 @@
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -1759,7 +1834,7 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -1778,7 +1853,7 @@
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -1797,7 +1872,7 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -1816,7 +1891,7 @@
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -1834,14 +1909,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="B39" s="17">
+        <v>7</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
@@ -1850,17 +1927,17 @@
       <c r="O39" s="15"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="17">
+        <v>8</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
@@ -1870,14 +1947,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
+      <c r="B41" s="17">
+        <v>9</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
@@ -1887,16 +1966,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
-      <c r="B42" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="B42" s="17">
+        <v>10</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
@@ -1922,22 +2001,22 @@
       <c r="O43" s="15"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
+      <c r="A44" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="B44" s="15"/>
-      <c r="C44" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="20"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
       <c r="O44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
@@ -1960,7 +2039,7 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -1996,147 +2075,147 @@
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
-      <c r="C48" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="23"/>
+      <c r="C48" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="20"/>
       <c r="O48" s="15"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="26"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="15"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="26"/>
+      <c r="B50" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
       <c r="O50" s="15"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
-      <c r="C51" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="29"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
       <c r="O51" s="15"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
+      <c r="C52" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="23"/>
       <c r="O52" s="15"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="A53" s="15"/>
       <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="26"/>
       <c r="O53" s="15"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
+      <c r="C54" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26"/>
       <c r="O54" s="15"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="15"/>
-      <c r="B55" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="29"/>
       <c r="O55" s="15"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
@@ -2157,22 +2236,22 @@
       <c r="O56" s="15"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="15"/>
+      <c r="A57" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="B57" s="15"/>
-      <c r="C57" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="20"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
       <c r="O57" s="15"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
@@ -2193,10 +2272,10 @@
       <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="15"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -2230,21 +2309,21 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="15"/>
-      <c r="B61" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="20"/>
       <c r="O61" s="15"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
@@ -2265,22 +2344,22 @@
       <c r="O62" s="15"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="15"/>
+      <c r="A63" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="B63" s="15"/>
-      <c r="C63" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="20"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
       <c r="O63" s="15"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
@@ -2303,7 +2382,7 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -2321,9 +2400,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="15"/>
-      <c r="B66" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -2341,42 +2418,44 @@
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
+      <c r="C67" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="20"/>
       <c r="O67" s="15"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
-      <c r="C68" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="20"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
       <c r="O68" s="15"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -2394,7 +2473,7 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="15"/>
       <c r="B70" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
@@ -2431,7 +2510,7 @@
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
@@ -2463,22 +2542,168 @@
       <c r="N73" s="15"/>
       <c r="O73" s="15"/>
     </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+    </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" t="s">
-        <v>98</v>
-      </c>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C77" t="s">
-        <v>36</v>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="15"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="15"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C30:I30"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2502,7 +2727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2520,7 +2745,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -2532,51 +2757,51 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -2584,16 +2809,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2843,7 +3068,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>利用手順!$C$76:$C$77</xm:f>
+            <xm:f>利用手順!$C$84:$C$85</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>
@@ -2897,61 +3122,61 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
@@ -3079,33 +3304,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3196,120 +3421,120 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3346,18 +3571,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
+++ b/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="113">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -381,6 +381,26 @@
   </si>
   <si>
     <t>getconfig -c .\template\Zabbix\config_zabbix_server.groovy -rp {Redmineプロジェクト名}</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ホストグループ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>アクション</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -699,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,12 +810,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -806,6 +820,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,7 +1155,7 @@
   </sheetPr>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0"/>
+    <sheetView zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1237,61 +1263,61 @@
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
@@ -1703,15 +1729,15 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -2581,7 +2607,7 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="32" t="s">
         <v>104</v>
       </c>
       <c r="D76" s="15"/>
@@ -2600,7 +2626,7 @@
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="33" t="s">
         <v>55</v>
       </c>
       <c r="D77" s="19"/>
@@ -2619,7 +2645,7 @@
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
-      <c r="C78" s="34"/>
+      <c r="C78" s="32"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
@@ -2636,7 +2662,7 @@
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="32" t="s">
         <v>105</v>
       </c>
       <c r="D79" s="15"/>
@@ -2655,7 +2681,7 @@
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="33" t="s">
         <v>107</v>
       </c>
       <c r="D80" s="19"/>
@@ -2744,15 +2770,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -3378,162 +3404,186 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK9"/>
+  <dimension ref="A1:AML9"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="8.5" style="3" customWidth="1"/>
-    <col min="9" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="1025" width="8.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="47.625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="1026" width="8.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>75</v>
+      <c r="B4" s="37" t="s">
+        <v>108</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>68</v>
+      <c r="B5" s="37" t="s">
+        <v>109</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>82</v>
+      <c r="B6" s="37" t="s">
+        <v>110</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>85</v>
+      <c r="B7" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>88</v>
+      <c r="B8" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>91</v>
+      <c r="B9" s="37" t="s">
+        <v>112</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>93</v>
       </c>
     </row>

--- a/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
+++ b/template/Zabbix/ZabbixServer監視設定チェックシート.xlsx
@@ -822,16 +822,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1729,15 +1729,15 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -2770,15 +2770,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -3413,9 +3413,8 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
+    <col min="3" max="4" width="23.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="6.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="47.625" style="3" customWidth="1"/>
@@ -3426,8 +3425,8 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -3435,8 +3434,8 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -3444,8 +3443,8 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -3455,7 +3454,7 @@
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3478,7 +3477,7 @@
       <c r="A5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -3499,7 +3498,7 @@
       <c r="A6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -3522,14 +3521,14 @@
       <c r="A7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>35</v>
@@ -3538,21 +3537,21 @@
         <v>80</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>35</v>
@@ -3561,14 +3560,14 @@
         <v>80</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>112</v>
       </c>
       <c r="C9" s="7" t="s">
